--- a/all/Country.xlsx
+++ b/all/Country.xlsx
@@ -469,10 +469,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>

--- a/all/Country.xlsx
+++ b/all/Country.xlsx
@@ -469,10 +469,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
